--- a/Metadata-Indicators.xlsx
+++ b/Metadata-Indicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giocopp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giocopp/Desktop/LOCALISED-7.1-Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F58AB-A4E2-B640-A78E-353F057AE9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954D0F0-2695-4948-96B9-5225F0C552B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="760" windowWidth="28960" windowHeight="18880" xr2:uid="{3461303E-0E4C-1B4F-8E0F-9CD5C56CD9CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
   <si>
     <t>Dimension</t>
   </si>
@@ -249,21 +249,12 @@
     <t>Investment, expenditure and purchases of enterprises by NACE Rev.2 activity for tangible goods.</t>
   </si>
   <si>
-    <t>Gross fixed capital formation by NUTS 2 region.</t>
-  </si>
-  <si>
     <t>Import worldwide by Industry (NACE Rev. 2 - level 2) and NUTS 2 region, in thousands of euros. Measure of the complexity of supply chain.</t>
   </si>
   <si>
     <t>Directorate-General for Internal Market, Industry, Entrepreneurship and SMEs (RIS)</t>
   </si>
   <si>
-    <t>NUTS 0</t>
-  </si>
-  <si>
-    <t>NUTS 1</t>
-  </si>
-  <si>
     <t>IntlSciPub</t>
   </si>
   <si>
@@ -288,12 +279,6 @@
     <t>SMEs introducing business process innovations</t>
   </si>
   <si>
-    <t>Employment in knowledge-intensive activities</t>
-  </si>
-  <si>
-    <t>Employment in innovative enterprises</t>
-  </si>
-  <si>
     <t>Sales of new-to-market and new-to-firm innovations</t>
   </si>
   <si>
@@ -303,9 +288,6 @@
     <t>R&amp;D expenditure in the public sector as percentage of GDP</t>
   </si>
   <si>
-    <t>Total employment in innovative enterprises SMEs</t>
-  </si>
-  <si>
     <t>International scientific co-publications per million population measure the number of scientific publications with at least one co-author based abroad, divided by the total population. This indicator serves as a proxy for the quality of scientific research, as international collaboration tends to boost scientific productivity. Data for the numerator comes from Scopus, calculated by Science Metrix for the European Commission, while population data is sourced from Eurostat.</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
   </si>
   <si>
     <t>SMEs introducing business process innovations as a percentage of SMEs captures the proportion of SMEs implementing innovations in processes, marketing, or organization that are new to the firm or market. This indicates firms’ ability to improve operations, with data sourced from the Community Innovation Survey via Eurostat and national statistical offices.</t>
-  </si>
-  <si>
-    <t>Employment in knowledge-intensive activities as a percentage of total employment assesses the share of workers in industries where at least 33% of employment holds higher education degrees (ISCED 5-8). These activities are critical for driving innovation in various economic sectors. Data is derived from the EU Labour Force Survey via Eurostat.</t>
   </si>
   <si>
     <t>Sales of new-to-market and new-to-firm innovations in SMEs as a percentage of turnover measures the share of turnover generated by products that are either new to the market or significantly improved. This captures the creation and diffusion of advanced technologies. Data is provided by the Community Innovation Survey through Eurostat and national statistical offices.</t>
@@ -442,12 +421,6 @@
     <t>ProcInnoSMEs</t>
   </si>
   <si>
-    <t>KnowledgeEmp</t>
-  </si>
-  <si>
-    <t>InnovEmp</t>
-  </si>
-  <si>
     <t>SalesNewInno</t>
   </si>
   <si>
@@ -481,12 +454,6 @@
     <t>Tech_10</t>
   </si>
   <si>
-    <t>Tech_11</t>
-  </si>
-  <si>
-    <t>Tech_12</t>
-  </si>
-  <si>
     <t>Tech_Index</t>
   </si>
   <si>
@@ -538,7 +505,22 @@
     <t>EU NUTS 2 code</t>
   </si>
   <si>
-    <t>Aggregation of NACE rev 2 code</t>
+    <r>
+      <t>Gross Fixed Capital Formation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a macroeconomic indicator that measures the value of acquisitions (minus disposals) of fixed assets during a given period by resident producers. It also includes certain additions to the value of non-produced assets (such as land improvements).</t>
+    </r>
+  </si>
+  <si>
+    <t>Aggregation of NACE rev 2 codes at level 2</t>
   </si>
 </sst>
 </file>
@@ -627,20 +609,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AD5B20-867C-D642-9949-4AB991E75924}">
-  <dimension ref="A1:XFD37"/>
+  <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,56 +977,55 @@
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11 16384:16384" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11 16384:16384" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11 16384:16384" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>41</v>
@@ -1068,16 +1051,16 @@
     </row>
     <row r="3" spans="1:11 16384:16384" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>41</v>
@@ -1102,37 +1085,37 @@
       </c>
     </row>
     <row r="4" spans="1:11 16384:16384" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>2022</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1141,15 +1124,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1176,21 +1159,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1211,21 +1194,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1242,64 +1225,64 @@
       </c>
     </row>
     <row r="8" spans="1:11 16384:16384" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="XFD8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="XFD8" s="2"/>
     </row>
     <row r="9" spans="1:11 16384:16384" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="4">
@@ -1317,24 +1300,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="4">
@@ -1352,24 +1335,24 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="4">
@@ -1387,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1395,16 +1378,16 @@
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="4"/>
@@ -1415,38 +1398,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:11 16384:16384" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1455,24 +1438,24 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="4">
@@ -1485,29 +1468,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11 16384:16384" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11 16384:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="4">
@@ -1517,68 +1500,68 @@
         <v>22</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11 16384:16384" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>72</v>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="4">
         <v>2023</v>
@@ -1590,30 +1573,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>72</v>
+      <c r="H18" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="4">
         <v>2023</v>
@@ -1625,30 +1608,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>72</v>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="4">
         <v>2023</v>
@@ -1660,100 +1643,100 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>72</v>
+      <c r="H20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I20" s="4">
         <v>2023</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>72</v>
+      <c r="H21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I21" s="4">
         <v>2023</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>72</v>
+      <c r="H22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I22" s="4">
         <v>2023</v>
@@ -1765,30 +1748,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>72</v>
+      <c r="H23" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="4">
         <v>2023</v>
@@ -1800,30 +1783,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>72</v>
+      <c r="H24" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I24" s="4">
         <v>2023</v>
@@ -1835,30 +1818,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>72</v>
+      <c r="H25" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I25" s="4">
         <v>2023</v>
@@ -1870,240 +1853,240 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>72</v>
+      <c r="G26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I26" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2023</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>45</v>
+      <c r="H28" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="I28" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2021</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I30" s="4">
         <v>2021</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="4">
-        <v>2021</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>48</v>
+      <c r="G32" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I32" s="4">
         <v>2021</v>
@@ -2112,41 +2095,41 @@
         <v>22</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2021</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2155,24 +2138,24 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="4">
@@ -2185,108 +2168,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2021</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2021</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="B35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
